--- a/周报/第八周周报.xlsx
+++ b/周报/第八周周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF136864-94C9-4A19-BD42-1ABC24D68C43}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F4AD33-0ED8-49A4-B73F-92594952CA22}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据库设计</t>
+    <t>用户详情页、问题详情页设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,32 +217,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,32 +594,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -674,15 +674,15 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -694,12 +694,12 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -731,6 +731,14 @@
     <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A10:C10"/>
@@ -739,14 +747,6 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
